--- a/fichier_agent_exemple.xlsx
+++ b/fichier_agent_exemple.xlsx
@@ -421,7 +421,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="19.90625" customWidth="1"/>
     <col min="4" max="4" width="19.7265625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
